--- a/medicine/Enfance/Alerte_à_la_bombe_(roman)/Alerte_à_la_bombe_(roman).xlsx
+++ b/medicine/Enfance/Alerte_à_la_bombe_(roman)/Alerte_à_la_bombe_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alerte_%C3%A0_la_bombe_(roman)</t>
+          <t>Alerte_à_la_bombe_(roman)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alerte à la bombe (titre en italien : I pirati dell'atomo) est un roman d'Edward Jones de la série « Le Trio de la Tamise », paru en 1976 en Italie et publié en France dans la Bibliothèque verte en 1981 (avec une traduction de Lydie Mazzoni et des illustrations de François Dermaut).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alerte_%C3%A0_la_bombe_(roman)</t>
+          <t>Alerte_à_la_bombe_(roman)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Trio de la Tamise (Dave, Ted et Cathy) assistent à une conférence sur la délinquance des mineurs. Le conférencier est un journaliste qui s'appelle Mr Brown. Après la conférence, le trio va rencontrer Mr Brown, qui les invite à venir visiter son bureau dans le journal où il travaille.
 Quelques jours après, les trois adolescents se rendent au journal. Mr Brown les reçoit fort aimablement. À un moment où il s'absente de son bureau, le trio regarde les documents jonchant son bureau. Ils découvrent que le journaliste écrit un article sur la dissémination du combustible nucléaire. Ils ne peuvent pas aller plus loin dans leurs investigations sommaires.
